--- a/data/trans_orig/Q20A-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/Q20A-Dificultad-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.06051100021124287</v>
+        <v>0.05871499835355186</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.08756107565942929</v>
+        <v>0.08925696919680719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.04863638872562387</v>
+        <v>0.04980056227355376</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1141176088371396</v>
+        <v>0.1182545519756769</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1055511656722928</v>
+        <v>0.1065108406665645</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1249282210920864</v>
+        <v>0.1291165331739211</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.08292176086415971</v>
+        <v>0.08377715101102609</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.07958661323601583</v>
+        <v>0.07743711729100537</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.09614565602319892</v>
+        <v>0.09442187578362615</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1156369021807158</v>
+        <v>0.1162801330727378</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.07117980608752818</v>
+        <v>0.07149386127617488</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1071621190189141</v>
+        <v>0.1068790932437583</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.137973996263042</v>
+        <v>0.1401471415456349</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1456020145940846</v>
+        <v>0.1460442584830715</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.0891763678348365</v>
+        <v>0.08884985280604599</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3725266737573769</v>
+        <v>0.4045384730093325</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.1971582352109996</v>
+        <v>0.1924003541217097</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2054146791633108</v>
+        <v>0.2019808633004846</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1291016490621852</v>
+        <v>0.1299906685110636</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1356422463990221</v>
+        <v>0.1395240651584551</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1563915358942212</v>
+        <v>0.1553228821239579</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1635392433790402</v>
+        <v>0.1616070708042246</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.102312677579126</v>
+        <v>0.1035577253978807</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.225329462594919</v>
+        <v>0.2164883278884148</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>0.06228287927808414</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06256611536706666</v>
+        <v>0.06256611536706665</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06831290002682182</v>
@@ -817,7 +817,7 @@
         <v>0.08682731623441974</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.07187301574795009</v>
+        <v>0.07187301574795008</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.06163404700360476</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.03760747256766159</v>
+        <v>0.03703093195794658</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.03927269121876199</v>
+        <v>0.03941645404097323</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.04354952789031328</v>
+        <v>0.04511140712393601</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.0469880705416242</v>
+        <v>0.04773818581225542</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.05267585087318809</v>
+        <v>0.05326611343122922</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.09609089607308652</v>
+        <v>0.09532907656816743</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.06763657305299008</v>
+        <v>0.06769279764953075</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.05687154989213799</v>
+        <v>0.05831147324201703</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.04827689735429652</v>
+        <v>0.04902615541831813</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07437748944240413</v>
+        <v>0.07354325020577719</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.0619094602269628</v>
+        <v>0.05977881768334233</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.05583556298468691</v>
+        <v>0.05703648626021344</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.09988215351918255</v>
+        <v>0.09162143589186486</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.08353715582724086</v>
+        <v>0.08403453468160288</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0887299305767557</v>
+        <v>0.08762810740074986</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.08155166744725027</v>
+        <v>0.08395546887520172</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08978095013972109</v>
+        <v>0.08879064869043006</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1430884968488349</v>
+        <v>0.1421347956965912</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1124876993144034</v>
+        <v>0.1107955067663773</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.0909495513053277</v>
+        <v>0.08923818045246761</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.08287622157275176</v>
+        <v>0.0836704537697418</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1069214387684158</v>
+        <v>0.1084867128973255</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.0926039515967392</v>
+        <v>0.09134010709570177</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.08032505215131477</v>
+        <v>0.08128020862508775</v>
       </c>
     </row>
     <row r="10">
@@ -965,7 +965,7 @@
         <v>0.07402455381599209</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.07616853054503528</v>
+        <v>0.07616853054503529</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02907270792571906</v>
+        <v>0.02826380821340022</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.04787545333603688</v>
+        <v>0.04644165861086968</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04023300573129867</v>
+        <v>0.04183603269297648</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04573461842885471</v>
+        <v>0.04729537135259832</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.07819657473917753</v>
+        <v>0.07847909797616652</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05737228969116609</v>
+        <v>0.05802043652054818</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06960485144993427</v>
+        <v>0.07163303428426181</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05325848634228092</v>
+        <v>0.05398494879212734</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.05597179863618843</v>
+        <v>0.05572935004869169</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.05837526847093038</v>
+        <v>0.0571031956980806</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.0595862962666784</v>
+        <v>0.06003117769902122</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.05540580998383429</v>
+        <v>0.05634018310692052</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05890500007145409</v>
+        <v>0.05541704356698031</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.09550460241805266</v>
+        <v>0.09537800759608266</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07986752846243672</v>
+        <v>0.08228449668451644</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2626364125167446</v>
+        <v>0.245394196094659</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1469097150656478</v>
+        <v>0.1435461863996943</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1088667288963491</v>
+        <v>0.1109418025007465</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1137218067946234</v>
+        <v>0.1184522388706477</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.0852104803828773</v>
+        <v>0.08670312771237974</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.08949120119215577</v>
+        <v>0.08993234538814616</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.09665009172434665</v>
+        <v>0.09294616430017412</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09216587073762364</v>
+        <v>0.08875891637674881</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.145396025537234</v>
+        <v>0.1448842333570378</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.09228596762189231</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.08474534108286901</v>
+        <v>0.08474534108286902</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.09038534842063005</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.04753402957036833</v>
+        <v>0.05014062578039823</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.0666743874979434</v>
+        <v>0.06635436134320562</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03962828838681508</v>
+        <v>0.03988367567091317</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.04463087034749966</v>
+        <v>0.04457011585189126</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04682627675764101</v>
+        <v>0.05092299351628195</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07290232664437422</v>
+        <v>0.07184988672387756</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.05626374854591926</v>
+        <v>0.0568639622766517</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.062970205832991</v>
+        <v>0.06331671280949493</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05588468423162119</v>
+        <v>0.05491839757503436</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08283570146323707</v>
+        <v>0.08325051758098204</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.05776677650891544</v>
+        <v>0.05653550347526863</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.05887775193131321</v>
+        <v>0.05854624246548083</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1744882822341968</v>
+        <v>0.1621401996628677</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.4739478139550678</v>
+        <v>0.4644480900408384</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2526850720251524</v>
+        <v>0.2055719775027302</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.07865143498359473</v>
+        <v>0.07921152701982812</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2609605292553763</v>
+        <v>0.2285536049097406</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1567044086809808</v>
+        <v>0.1540076854428625</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1851898553884725</v>
+        <v>0.1692609345442216</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1201343432430312</v>
+        <v>0.1168304913531488</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1513030967796839</v>
+        <v>0.1554727559957826</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3201283656439901</v>
+        <v>0.3117395773915443</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1473886047783642</v>
+        <v>0.1453512909196078</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08772312097662825</v>
+        <v>0.08856912198829553</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>0.09443451435647489</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.07900070886646224</v>
+        <v>0.07900070886646222</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.08088096059385845</v>
@@ -1237,7 +1237,7 @@
         <v>0.07999244886759183</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>0.08236011493577326</v>
+        <v>0.08236011493577328</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.04866432168991466</v>
+        <v>0.04893258218947893</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.0741913530104991</v>
+        <v>0.07320580445054219</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.05440931172145405</v>
+        <v>0.05371144267168812</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.06860131512590266</v>
+        <v>0.06741322054303527</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08475071525113503</v>
+        <v>0.08573304330460607</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1039903613496271</v>
+        <v>0.1045194712582914</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.08273901262906856</v>
+        <v>0.082866953266998</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.07010962058283424</v>
+        <v>0.06870715775774777</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07095992883972452</v>
+        <v>0.07125018639243862</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.0935790760152156</v>
+        <v>0.09449936329221935</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.07140845286079618</v>
+        <v>0.07192579532144287</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07311466539962631</v>
+        <v>0.07190213316648343</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.07627867219455987</v>
+        <v>0.07629401876537555</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.136041432953333</v>
+        <v>0.1327087562870886</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.08422952430748358</v>
+        <v>0.08167365254789836</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.126805203947435</v>
+        <v>0.1275897619576943</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1214372728861965</v>
+        <v>0.1233818321183607</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1366133991496445</v>
+        <v>0.1369261427102882</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1089422242819563</v>
+        <v>0.1090171694784035</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09152430850544936</v>
+        <v>0.09037388067368055</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.09537326334182161</v>
+        <v>0.094310460587717</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1290218525296065</v>
+        <v>0.1293519856669249</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.09086615128528827</v>
+        <v>0.09085318094592545</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.107133700290764</v>
+        <v>0.1030400790845159</v>
       </c>
     </row>
     <row r="19">
